--- a/openpyxl/成绩汇总.xlsx
+++ b/openpyxl/成绩汇总.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,31 +14,372 @@
     <sheet name="语文" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="20">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1874CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001874CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -47,15 +387,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -408,7 +1040,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -420,11 +1051,14 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -444,17 +1078,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>历史</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -474,17 +1108,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>历史</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>王五</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -504,17 +1138,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>历史</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>王五1111</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -534,17 +1168,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>地理</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>51</v>
       </c>
     </row>
@@ -564,17 +1198,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>地理</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>王五1</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -594,17 +1228,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>数学</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>65</v>
       </c>
     </row>
@@ -624,17 +1258,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>数学</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -654,17 +1288,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>英语</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>王五</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>56</v>
       </c>
     </row>
@@ -684,17 +1318,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>语文</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -714,17 +1348,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>语文</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>王五</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -744,17 +1378,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>语文</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>王五1111</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -775,7 +1409,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -886,7 +1520,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -997,7 +1631,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1078,7 +1712,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1159,7 +1793,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
